--- a/tutorial/dac_scenarios/get_report_output.xlsx
+++ b/tutorial/dac_scenarios/get_report_output.xlsx
@@ -513,19 +513,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18.66377935190396</v>
+        <v>18.66377935167788</v>
       </c>
       <c r="K2" t="n">
-        <v>244.1504077286026</v>
+        <v>244.150407728117</v>
       </c>
       <c r="L2" t="n">
-        <v>894.9093555782582</v>
+        <v>894.9093555749048</v>
       </c>
       <c r="M2" t="n">
-        <v>3271.574975976034</v>
+        <v>3271.574975968643</v>
       </c>
       <c r="N2" t="n">
-        <v>5744.733880686536</v>
+        <v>5744.733880686101</v>
       </c>
     </row>
     <row r="3">
@@ -562,16 +562,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>98.46560893642852</v>
+        <v>98.46560893638797</v>
       </c>
       <c r="L3" t="n">
-        <v>581.2031918205647</v>
+        <v>581.2031918206147</v>
       </c>
       <c r="M3" t="n">
-        <v>2087.202376268372</v>
+        <v>2087.202376268699</v>
       </c>
       <c r="N3" t="n">
-        <v>1833.498068690948</v>
+        <v>1833.498068691198</v>
       </c>
     </row>
     <row r="4">
@@ -608,10 +608,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>19.91721806661441</v>
+        <v>19.9172180666144</v>
       </c>
       <c r="L4" t="n">
-        <v>32.16473581348519</v>
+        <v>32.16473581348525</v>
       </c>
       <c r="M4" t="n">
         <v>181.335333163807</v>
@@ -657,13 +657,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>379.5991085184106</v>
+        <v>379.5991085186127</v>
       </c>
       <c r="M5" t="n">
-        <v>1614.023271211976</v>
+        <v>1614.023271212302</v>
       </c>
       <c r="N5" t="n">
-        <v>1424.223716952771</v>
+        <v>1424.223716952996</v>
       </c>
     </row>
     <row r="6">
@@ -703,13 +703,13 @@
         <v>98.80521955702118</v>
       </c>
       <c r="L6" t="n">
-        <v>693.3143410238371</v>
+        <v>693.3143410238484</v>
       </c>
       <c r="M6" t="n">
-        <v>2127.374128422341</v>
+        <v>2127.374128422363</v>
       </c>
       <c r="N6" t="n">
-        <v>2228.199757930155</v>
+        <v>2228.199757942898</v>
       </c>
     </row>
     <row r="7">
@@ -749,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>364.0305599183185</v>
+        <v>364.0305599181563</v>
       </c>
       <c r="M7" t="n">
-        <v>3193.816919241436</v>
+        <v>3193.816919242007</v>
       </c>
       <c r="N7" t="n">
-        <v>3011.801639282276</v>
+        <v>3011.80163928293</v>
       </c>
     </row>
     <row r="8">
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>59.7911736963669</v>
+        <v>59.79117369628143</v>
       </c>
       <c r="K8" t="n">
-        <v>288.9724025148556</v>
+        <v>288.9724025148745</v>
       </c>
       <c r="L8" t="n">
-        <v>1579.359255871965</v>
+        <v>1579.359255865839</v>
       </c>
       <c r="M8" t="n">
-        <v>4797.305416290115</v>
+        <v>4797.305416278276</v>
       </c>
       <c r="N8" t="n">
-        <v>4671.706133528686</v>
+        <v>4671.706133517106</v>
       </c>
     </row>
     <row r="9">
@@ -835,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.529803798301121</v>
+        <v>3.529803798302931</v>
       </c>
       <c r="K9" t="n">
-        <v>14.30449694748633</v>
+        <v>14.3044969475227</v>
       </c>
       <c r="L9" t="n">
-        <v>56.8254426051115</v>
+        <v>56.82544260510924</v>
       </c>
       <c r="M9" t="n">
-        <v>411.2416289606244</v>
+        <v>411.2416289606243</v>
       </c>
       <c r="N9" t="n">
-        <v>383.7113586076439</v>
+        <v>383.7113586076454</v>
       </c>
     </row>
     <row r="10">
@@ -881,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>37.62510653763389</v>
+        <v>37.62510653762491</v>
       </c>
       <c r="K10" t="n">
-        <v>118.4880163297111</v>
+        <v>118.4880163297056</v>
       </c>
       <c r="L10" t="n">
-        <v>215.981506663179</v>
+        <v>215.9815066631799</v>
       </c>
       <c r="M10" t="n">
-        <v>714.7924211982361</v>
+        <v>714.7924211981521</v>
       </c>
       <c r="N10" t="n">
-        <v>616.2079445010551</v>
+        <v>616.2079445009683</v>
       </c>
     </row>
     <row r="11">
@@ -924,22 +924,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>49.15860199659996</v>
+        <v>49.15860199660965</v>
       </c>
       <c r="J11" t="n">
-        <v>184.0425282574486</v>
+        <v>184.0425282574523</v>
       </c>
       <c r="K11" t="n">
-        <v>379.6026023193152</v>
+        <v>379.6026023192973</v>
       </c>
       <c r="L11" t="n">
-        <v>496.2806949768392</v>
+        <v>496.2806949769396</v>
       </c>
       <c r="M11" t="n">
-        <v>1746.590509890193</v>
+        <v>1746.590509889897</v>
       </c>
       <c r="N11" t="n">
-        <v>1532.171143966986</v>
+        <v>1532.171143966638</v>
       </c>
     </row>
     <row r="12">
@@ -976,16 +976,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>68.82967782317435</v>
+        <v>68.82967782317445</v>
       </c>
       <c r="L12" t="n">
-        <v>223.8712925744189</v>
+        <v>223.871292574419</v>
       </c>
       <c r="M12" t="n">
-        <v>825.3909585301852</v>
+        <v>825.3909585301845</v>
       </c>
       <c r="N12" t="n">
-        <v>713.4553122429758</v>
+        <v>713.4553122429751</v>
       </c>
     </row>
     <row r="13">
@@ -1016,22 +1016,22 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>49.15860199659996</v>
+        <v>49.15860199660965</v>
       </c>
       <c r="J13" t="n">
-        <v>303.6523916416545</v>
+        <v>303.6523916413394</v>
       </c>
       <c r="K13" t="n">
-        <v>1331.535650223209</v>
+        <v>1331.535650222715</v>
       </c>
       <c r="L13" t="n">
-        <v>5517.539485364388</v>
+        <v>5517.539485355109</v>
       </c>
       <c r="M13" t="n">
-        <v>20970.64793915332</v>
+        <v>20970.64793913496</v>
       </c>
       <c r="N13" t="n">
-        <v>22324.9619216471</v>
+        <v>22324.96192164852</v>
       </c>
     </row>
   </sheetData>
@@ -1130,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.866377935190396</v>
+        <v>1.866377935167788</v>
       </c>
       <c r="K2" t="n">
-        <v>22.54866283766987</v>
+        <v>22.54866283764392</v>
       </c>
       <c r="L2" t="n">
-        <v>66.00908375256077</v>
+        <v>66.00908375226267</v>
       </c>
       <c r="M2" t="n">
-        <v>249.8740824262077</v>
+        <v>249.8740824257797</v>
       </c>
       <c r="N2" t="n">
-        <v>291.5947637661656</v>
+        <v>291.5947637666991</v>
       </c>
     </row>
     <row r="3">
@@ -1179,16 +1179,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>9.846560893642852</v>
+        <v>9.846560893638797</v>
       </c>
       <c r="L3" t="n">
-        <v>48.27375828841362</v>
+        <v>48.27375828842268</v>
       </c>
       <c r="M3" t="n">
-        <v>155.5231988916021</v>
+        <v>155.5231988916278</v>
       </c>
       <c r="N3" t="n">
-        <v>3.68972883328588</v>
+        <v>3.68972883328065</v>
       </c>
     </row>
     <row r="4">
@@ -1225,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.991721806661441</v>
+        <v>1.99172180666144</v>
       </c>
       <c r="L4" t="n">
-        <v>1.224751774687079</v>
+        <v>1.224751774687085</v>
       </c>
       <c r="M4" t="n">
         <v>15.9129206383629</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>37.95991085184107</v>
+        <v>37.95991085186127</v>
       </c>
       <c r="M5" t="n">
-        <v>123.4424162693566</v>
+        <v>123.442416269369</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1320,13 +1320,13 @@
         <v>9.880521955702118</v>
       </c>
       <c r="L6" t="n">
-        <v>59.4509121466816</v>
+        <v>59.45091214668273</v>
       </c>
       <c r="M6" t="n">
-        <v>148.3462397177015</v>
+        <v>148.3462397177025</v>
       </c>
       <c r="N6" t="n">
-        <v>44.74828000197323</v>
+        <v>44.7482800032459</v>
       </c>
     </row>
     <row r="7">
@@ -1366,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>36.40305599183186</v>
+        <v>36.40305599181563</v>
       </c>
       <c r="M7" t="n">
-        <v>282.9786359323118</v>
+        <v>282.9786359323851</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1406,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>5.97911736963669</v>
+        <v>5.979117369628144</v>
       </c>
       <c r="K8" t="n">
-        <v>22.91812288184887</v>
+        <v>22.91812288185931</v>
       </c>
       <c r="L8" t="n">
-        <v>132.0282440205293</v>
+        <v>132.0282440199105</v>
       </c>
       <c r="M8" t="n">
-        <v>336.2432361675578</v>
+        <v>336.2432361669874</v>
       </c>
       <c r="N8" t="n">
-        <v>64.91325517504619</v>
+        <v>64.91325517476785</v>
       </c>
     </row>
     <row r="9">
@@ -1452,16 +1452,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3529803798301122</v>
+        <v>0.3529803798302931</v>
       </c>
       <c r="K9" t="n">
-        <v>1.077469314918521</v>
+        <v>1.077469314921977</v>
       </c>
       <c r="L9" t="n">
-        <v>4.428584755677574</v>
+        <v>4.4285847556738</v>
       </c>
       <c r="M9" t="n">
-        <v>36.1568434829256</v>
+        <v>36.15684348292764</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1498,16 +1498,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.762510653763389</v>
+        <v>3.762510653762491</v>
       </c>
       <c r="K10" t="n">
-        <v>8.086290979207718</v>
+        <v>8.086290979208067</v>
       </c>
       <c r="L10" t="n">
-        <v>11.63060436022849</v>
+        <v>11.63060436022868</v>
       </c>
       <c r="M10" t="n">
-        <v>55.80549226999126</v>
+        <v>55.80549226998249</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1541,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>9.831720399319991</v>
+        <v>9.831720399321931</v>
       </c>
       <c r="J11" t="n">
-        <v>13.48839262608487</v>
+        <v>13.48839262608426</v>
       </c>
       <c r="K11" t="n">
-        <v>19.55600740618667</v>
+        <v>19.55600740618451</v>
       </c>
       <c r="L11" t="n">
-        <v>23.32786577845482</v>
+        <v>23.32786577846733</v>
       </c>
       <c r="M11" t="n">
-        <v>141.5531815074712</v>
+        <v>141.5531815074301</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1593,13 +1593,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>6.882967782317436</v>
+        <v>6.882967782317445</v>
       </c>
       <c r="L12" t="n">
         <v>15.50416147512446</v>
       </c>
       <c r="M12" t="n">
-        <v>63.59345048673535</v>
+        <v>63.59345048673528</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1633,22 +1633,22 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.831720399319991</v>
+        <v>9.831720399321931</v>
       </c>
       <c r="J13" t="n">
-        <v>25.44937896450546</v>
+        <v>25.44937896447298</v>
       </c>
       <c r="K13" t="n">
-        <v>102.7883258581555</v>
+        <v>102.7883258581376</v>
       </c>
       <c r="L13" t="n">
-        <v>436.2409331960305</v>
+        <v>436.2409331951369</v>
       </c>
       <c r="M13" t="n">
-        <v>1609.429697790224</v>
+        <v>1609.42969778929</v>
       </c>
       <c r="N13" t="n">
-        <v>404.9460277764708</v>
+        <v>404.9460277779935</v>
       </c>
     </row>
   </sheetData>
@@ -1747,19 +1747,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2284.748945898546</v>
+        <v>2284.74894587087</v>
       </c>
       <c r="K2" t="n">
-        <v>26929.95822168047</v>
+        <v>26929.95822164948</v>
       </c>
       <c r="L2" t="n">
-        <v>78834.91276201834</v>
+        <v>78834.91276166232</v>
       </c>
       <c r="M2" t="n">
-        <v>290964.8757848679</v>
+        <v>290964.8757843694</v>
       </c>
       <c r="N2" t="n">
-        <v>339546.3562884564</v>
+        <v>339546.3562890777</v>
       </c>
     </row>
     <row r="3">
@@ -1796,16 +1796,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>10726.68589256022</v>
+        <v>10726.68589255581</v>
       </c>
       <c r="L3" t="n">
-        <v>52588.65989926519</v>
+        <v>52588.65989927505</v>
       </c>
       <c r="M3" t="n">
-        <v>165188.9657027152</v>
+        <v>165188.9657027425</v>
       </c>
       <c r="N3" t="n">
-        <v>3919.045480274597</v>
+        <v>3919.045480269043</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1842,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2545.900473868727</v>
+        <v>2545.900473868725</v>
       </c>
       <c r="L4" t="n">
-        <v>1565.527933227787</v>
+        <v>1565.527933227795</v>
       </c>
       <c r="M4" t="n">
         <v>19832.03429778211</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>48521.91440716817</v>
+        <v>48521.914407194</v>
       </c>
       <c r="M5" t="n">
-        <v>153844.4317602551</v>
+        <v>153844.4317602706</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>11800.34689378286</v>
       </c>
       <c r="L6" t="n">
-        <v>71002.46218043042</v>
+        <v>71002.46218043177</v>
       </c>
       <c r="M6" t="n">
-        <v>172741.1854543186</v>
+        <v>172741.1854543198</v>
       </c>
       <c r="N6" t="n">
-        <v>52106.95565517771</v>
+        <v>52106.95565665967</v>
       </c>
     </row>
     <row r="7">
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>48823.52387485294</v>
+        <v>48823.52387483117</v>
       </c>
       <c r="M7" t="n">
-        <v>370040.6919991546</v>
+        <v>370040.6919992506</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -2023,19 +2023,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>8653.552652605702</v>
+        <v>8653.552652593335</v>
       </c>
       <c r="K8" t="n">
-        <v>32360.29783667908</v>
+        <v>32360.29783669382</v>
       </c>
       <c r="L8" t="n">
-        <v>186423.3524440113</v>
+        <v>186423.3524431376</v>
       </c>
       <c r="M8" t="n">
-        <v>462904.7182589322</v>
+        <v>462904.7182581468</v>
       </c>
       <c r="N8" t="n">
-        <v>89365.81874646537</v>
+        <v>89365.81874608219</v>
       </c>
     </row>
     <row r="9">
@@ -2069,16 +2069,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>545.9872276781788</v>
+        <v>545.9872276784587</v>
       </c>
       <c r="K9" t="n">
-        <v>1625.971231717517</v>
+        <v>1625.971231722733</v>
       </c>
       <c r="L9" t="n">
-        <v>6683.022254326578</v>
+        <v>6683.022254320883</v>
       </c>
       <c r="M9" t="n">
-        <v>53198.97393332427</v>
+        <v>53198.97393332727</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -2115,16 +2115,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4363.142804487561</v>
+        <v>4363.14280448652</v>
       </c>
       <c r="K10" t="n">
-        <v>9148.441471908611</v>
+        <v>9148.441471909005</v>
       </c>
       <c r="L10" t="n">
-        <v>13158.30750415322</v>
+        <v>13158.30750415344</v>
       </c>
       <c r="M10" t="n">
-        <v>61557.25274727472</v>
+        <v>61557.25274726505</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -2158,19 +2158,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>12513.5286043629</v>
+        <v>12513.52860436537</v>
       </c>
       <c r="J11" t="n">
-        <v>15641.62567134255</v>
+        <v>15641.62567134185</v>
       </c>
       <c r="K11" t="n">
-        <v>22124.7280910041</v>
+        <v>22124.72809100166</v>
       </c>
       <c r="L11" t="n">
-        <v>26392.02760418642</v>
+        <v>26392.02760420058</v>
       </c>
       <c r="M11" t="n">
-        <v>156142.7848190832</v>
+        <v>156142.7848190379</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>10097.98138453456</v>
+        <v>10097.98138453458</v>
       </c>
       <c r="L12" t="n">
         <v>22746.10878767067</v>
       </c>
       <c r="M12" t="n">
-        <v>90965.34344523598</v>
+        <v>90965.34344523588</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -2250,22 +2250,22 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>12513.5286043629</v>
+        <v>12513.52860436537</v>
       </c>
       <c r="J13" t="n">
-        <v>31489.05730201254</v>
+        <v>31489.05730197103</v>
       </c>
       <c r="K13" t="n">
-        <v>127360.3114977362</v>
+        <v>127360.3114977187</v>
       </c>
       <c r="L13" t="n">
-        <v>556739.8196513109</v>
+        <v>556739.8196501053</v>
       </c>
       <c r="M13" t="n">
-        <v>1997381.258202944</v>
+        <v>1997381.258201748</v>
       </c>
       <c r="N13" t="n">
-        <v>484938.1761703741</v>
+        <v>484938.1761720886</v>
       </c>
     </row>
   </sheetData>
@@ -2364,19 +2364,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>17.04003054828831</v>
+        <v>17.0400305480819</v>
       </c>
       <c r="K2" t="n">
-        <v>222.9093222562142</v>
+        <v>222.9093222557709</v>
       </c>
       <c r="L2" t="n">
-        <v>817.0522416429498</v>
+        <v>817.0522416398879</v>
       </c>
       <c r="M2" t="n">
-        <v>2986.947953066119</v>
+        <v>2986.947953059371</v>
       </c>
       <c r="N2" t="n">
-        <v>5244.942033066807</v>
+        <v>5244.942033066411</v>
       </c>
     </row>
     <row r="3">
@@ -2413,16 +2413,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>89.89910095895924</v>
+        <v>89.8991009589222</v>
       </c>
       <c r="L3" t="n">
-        <v>530.6385141321756</v>
+        <v>530.6385141322212</v>
       </c>
       <c r="M3" t="n">
-        <v>1905.615769533023</v>
+        <v>1905.615769533322</v>
       </c>
       <c r="N3" t="n">
-        <v>1673.983736714836</v>
+        <v>1673.983736715064</v>
       </c>
     </row>
     <row r="4">
@@ -2459,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>18.18442009481895</v>
+        <v>18.18442009481894</v>
       </c>
       <c r="L4" t="n">
-        <v>29.36640379771198</v>
+        <v>29.36640379771203</v>
       </c>
       <c r="M4" t="n">
         <v>165.5591591785558</v>
@@ -2508,13 +2508,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>346.5739860773089</v>
+        <v>346.5739860774934</v>
       </c>
       <c r="M5" t="n">
-        <v>1473.603246616534</v>
+        <v>1473.603246616832</v>
       </c>
       <c r="N5" t="n">
-        <v>1300.31625357788</v>
+        <v>1300.316253578085</v>
       </c>
     </row>
     <row r="6">
@@ -2554,13 +2554,13 @@
         <v>90.20916545556032</v>
       </c>
       <c r="L6" t="n">
-        <v>632.9959933547632</v>
+        <v>632.9959933547736</v>
       </c>
       <c r="M6" t="n">
-        <v>1942.292579249597</v>
+        <v>1942.292579249617</v>
       </c>
       <c r="N6" t="n">
-        <v>2034.346378990231</v>
+        <v>2034.346379001865</v>
       </c>
     </row>
     <row r="7">
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3599012054248</v>
+        <v>332.3599012052766</v>
       </c>
       <c r="M7" t="n">
-        <v>2915.954847267431</v>
+        <v>2915.954847267953</v>
       </c>
       <c r="N7" t="n">
-        <v>2749.774896664719</v>
+        <v>2749.774896665314</v>
       </c>
     </row>
     <row r="8">
@@ -2640,19 +2640,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>54.58934158478297</v>
+        <v>54.58934158470495</v>
       </c>
       <c r="K8" t="n">
-        <v>263.8318034960631</v>
+        <v>263.8318034960805</v>
       </c>
       <c r="L8" t="n">
-        <v>1441.955000611104</v>
+        <v>1441.955000605511</v>
       </c>
       <c r="M8" t="n">
-        <v>4379.939845072875</v>
+        <v>4379.939845062066</v>
       </c>
       <c r="N8" t="n">
-        <v>4265.26769991169</v>
+        <v>4265.267699901117</v>
       </c>
     </row>
     <row r="9">
@@ -2686,19 +2686,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.222710867848924</v>
+        <v>3.222710867850576</v>
       </c>
       <c r="K9" t="n">
-        <v>13.06000571305502</v>
+        <v>13.06000571308823</v>
       </c>
       <c r="L9" t="n">
-        <v>51.8816290984668</v>
+        <v>51.88162909846472</v>
       </c>
       <c r="M9" t="n">
-        <v>375.4636072410501</v>
+        <v>375.4636072410499</v>
       </c>
       <c r="N9" t="n">
-        <v>350.3284704087789</v>
+        <v>350.3284704087802</v>
       </c>
     </row>
     <row r="10">
@@ -2732,19 +2732,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>34.35172226885974</v>
+        <v>34.35172226885154</v>
       </c>
       <c r="K10" t="n">
-        <v>108.1795589090262</v>
+        <v>108.1795589090212</v>
       </c>
       <c r="L10" t="n">
-        <v>197.1911155834824</v>
+        <v>197.1911155834833</v>
       </c>
       <c r="M10" t="n">
-        <v>652.6054805539895</v>
+        <v>652.6054805539128</v>
       </c>
       <c r="N10" t="n">
-        <v>562.5978533294632</v>
+        <v>562.5978533293841</v>
       </c>
     </row>
     <row r="11">
@@ -2775,22 +2775,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.88180362289576</v>
+        <v>44.88180362290461</v>
       </c>
       <c r="J11" t="n">
-        <v>168.0308282990506</v>
+        <v>168.0308282990539</v>
       </c>
       <c r="K11" t="n">
-        <v>346.5771759175348</v>
+        <v>346.5771759175184</v>
       </c>
       <c r="L11" t="n">
-        <v>453.1042745138542</v>
+        <v>453.1042745139458</v>
       </c>
       <c r="M11" t="n">
-        <v>1594.637135529747</v>
+        <v>1594.637135529476</v>
       </c>
       <c r="N11" t="n">
-        <v>1398.872254441858</v>
+        <v>1398.87225444154</v>
       </c>
     </row>
     <row r="12">
@@ -2827,16 +2827,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>62.84149585255818</v>
+        <v>62.84149585255827</v>
       </c>
       <c r="L12" t="n">
         <v>204.3944901204445</v>
       </c>
       <c r="M12" t="n">
-        <v>753.581945138059</v>
+        <v>753.5819451380585</v>
       </c>
       <c r="N12" t="n">
-        <v>651.3847000778368</v>
+        <v>651.3847000778362</v>
       </c>
     </row>
     <row r="13">
@@ -2867,22 +2867,22 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>44.88180362289576</v>
+        <v>44.88180362290461</v>
       </c>
       <c r="J13" t="n">
-        <v>277.2346335688305</v>
+        <v>277.2346335685428</v>
       </c>
       <c r="K13" t="n">
-        <v>1215.69204865379</v>
+        <v>1215.692048653339</v>
       </c>
       <c r="L13" t="n">
-        <v>5037.513550137685</v>
+        <v>5037.513550129214</v>
       </c>
       <c r="M13" t="n">
-        <v>19146.20156844698</v>
+        <v>19146.20156843022</v>
       </c>
       <c r="N13" t="n">
-        <v>20382.6902344638</v>
+        <v>20382.6902344651</v>
       </c>
     </row>
   </sheetData>
